--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGN81HC\Desktop\DocumentMsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -740,6 +740,93 @@
   </si>
   <si>
     <t>RB_VerficationCriteria</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about DET error to be reported when the driver is not in the desired state.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about DET error to be reported when the parameters are invalid and report errors to DET.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that DET error  RBA_MSC_E_PARAM_IS_NULL  is reported if invalid pointer is passed as parameter to the API</t>
+  </si>
+  <si>
+    <t>Verify that DET error  RBA_MSC_E_UNINIT  is reported if rba_Msc_Prv_stInitialized_b is FALSE</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about DET error will not be reported when DET report is disable.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that DET report will not report when RBA_MSC_CFG_DEV_ERR_DET is STD_OFF</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about get the result/status of the command when function rba_Msc_GetCmdResult() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about get the current command value when function rba_Msc_GetCmdVal() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about set the command value when function rba_Msc_SetCmdVal() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about get the current number of upstream frames when function rba_Msc_GetNrUsFrm() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that the current command value associated to the given MSC command index is get successful when function rba_Msc_GetCmdVal() is invoked and returns E_OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the status result of command is get successful when function rba_Msc_GetCmdResult() is invoked and returns E_OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the command value of the command associated to the given MSC command index is set successful when function rba_Msc_SetCmdVal() is invoked and returns E_OK, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the current number of upstream frames set for the command associated to the given MSC command index is set successful when function rba_Msc_GetNrUsFrm() is invoked and returns E_OK, </t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about get the current number of upstream frames when function rba_Msc_SetNrUsFrm() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the number of upstream frames for the command associated to the given MSC command index is set successful when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK, </t>
+  </si>
+  <si>
+    <t>Analysis : The number of upstream frames is limited to the configured maximum number of upstream frames, if the new number of upstream frames is exceeds configured maximum number of upstream frames, DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke
+Risk : Low</t>
+  </si>
+  <si>
+    <t>Verify that DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke when the parameter nrUsFrm_u32 is exceeds configured maximum number of upstream frames and function rba_Msc_SetNrUsFrm() returns E_NOT_OK</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about get the pointer to the upstream buffer when function rba_Msc_GetUsBuf() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the pointer to the upstream buffer associated to the given MSC command index is get successful when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK, </t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about get the current internal signal value when function rba_Msc_GetSigVal() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the current state of the given signal in the internal signal register is get successful when function rba_Msc_GetSigVal() is invoked and returns E_OK, </t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about set set the internal signal value when function rba_Msc_SetSigVal() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the state of the given signal in the internal signal register is set successful when function rba_Msc_SetSigVal() is invoked and returns E_OK, </t>
   </si>
 </sst>
 </file>
@@ -1096,17 +1183,17 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D31" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110.85546875" customWidth="1"/>
+    <col min="3" max="3" width="99" customWidth="1"/>
     <col min="4" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="120.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1251,7 +1338,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-442</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1260,6 +1347,15 @@
       </c>
       <c r="C6" t="s">
         <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
@@ -1275,7 +1371,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2733</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1284,6 +1380,15 @@
       </c>
       <c r="C7" t="s">
         <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>30</v>
@@ -1443,7 +1548,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2755</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1452,6 +1557,15 @@
       </c>
       <c r="C14" t="s">
         <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>55</v>
@@ -1707,7 +1821,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2760</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1716,6 +1830,15 @@
       </c>
       <c r="C25" t="s">
         <v>92</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>93</v>
@@ -1731,7 +1854,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-504</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -1740,6 +1863,15 @@
       </c>
       <c r="C26" t="s">
         <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>96</v>
@@ -1755,7 +1887,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-521</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -1764,6 +1896,15 @@
       </c>
       <c r="C27" t="s">
         <v>98</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>168</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>99</v>
@@ -1779,7 +1920,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2720</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1788,6 +1929,15 @@
       </c>
       <c r="C28" t="s">
         <v>101</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>102</v>
@@ -1803,7 +1953,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2721</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -1812,6 +1962,15 @@
       </c>
       <c r="C29" t="s">
         <v>104</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>105</v>
@@ -1827,7 +1986,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2722</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -1836,6 +1995,15 @@
       </c>
       <c r="C30" t="s">
         <v>107</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>105</v>
@@ -1851,7 +2019,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2723</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -1860,6 +2028,15 @@
       </c>
       <c r="C31" t="s">
         <v>109</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>175</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>110</v>
@@ -1875,7 +2052,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2724</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -1884,6 +2061,15 @@
       </c>
       <c r="C32" t="s">
         <v>112</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
+        <v>177</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>113</v>
@@ -1899,7 +2085,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2726</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -1908,6 +2094,15 @@
       </c>
       <c r="C33" t="s">
         <v>115</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>116</v>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGN81HC\Desktop\DocumentMsc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -805,34 +800,62 @@
 Risk : Low</t>
   </si>
   <si>
-    <t>Verify that DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke when the parameter nrUsFrm_u32 is exceeds configured maximum number of upstream frames and function rba_Msc_SetNrUsFrm() returns E_NOT_OK</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about get the pointer to the upstream buffer when function rba_Msc_GetUsBuf() is called.
 Risk:Low</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the pointer to the upstream buffer associated to the given MSC command index is get successful when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK, </t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about get the current internal signal value when function rba_Msc_GetSigVal() is called.
 Risk:Low</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the current state of the given signal in the internal signal register is get successful when function rba_Msc_GetSigVal() is invoked and returns E_OK, </t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about set set the internal signal value when function rba_Msc_SetSigVal() is called.
+    <t>Analysis:Requirement tells about transmit a MSC command.
 Risk:Low</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the state of the given signal in the internal signal register is set successful when function rba_Msc_SetSigVal() is invoked and returns E_OK, </t>
+    <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked and return E_OK.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about transmit a MSC command while interrupts are disabled the command shall be transmitted immediately in a synchronous manner.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about transmit a MSC command while interrupts are available the command shall be queued and transmitted in an asynchronous manner.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked while  interrupts are disabled and return E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked while  interrupts are available and return E_OK.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about set the internal signal value when function rba_Msc_SetSigVal() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells aboutswitch the driver from synchronous mode to asynchronous mode when function rba_Msc_End_Init() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that the state of the given signal in the internal signal register is set successful when function rba_Msc_SetSigVal() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the current state of the given signal in the internal signal register is get successful when function rba_Msc_GetSigVal() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke when the parameter nrUsFrm_u32 is exceeds configured maximum number of upstream frames and function rba_Msc_SetNrUsFrm() returns E_NOT_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the pointer to the upstream buffer associated to the given MSC command index is get successful when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>When function rba_Msc_End_Init() is invoked verify that  synchronous mode to asynchronous mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -960,7 +983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -995,7 +1018,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1172,7 +1195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1182,18 +1205,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D31" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99" customWidth="1"/>
+    <col min="3" max="3" width="87.85546875" customWidth="1"/>
     <col min="4" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="120.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1725,7 +1748,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2749</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1734,6 +1757,15 @@
       </c>
       <c r="C21" t="s">
         <v>79</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>80</v>
@@ -1749,7 +1781,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-445</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1758,6 +1790,15 @@
       </c>
       <c r="C22" t="s">
         <v>82</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>83</v>
@@ -1773,7 +1814,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-446</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1782,6 +1823,15 @@
       </c>
       <c r="C23" t="s">
         <v>85</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>86</v>
@@ -2003,7 +2053,7 @@
         <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>105</v>
@@ -2030,13 +2080,13 @@
         <v>109</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E31" t="s">
         <v>155</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>110</v>
@@ -2063,13 +2113,13 @@
         <v>112</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
         <v>155</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>113</v>
@@ -2096,13 +2146,13 @@
         <v>115</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
         <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>116</v>
@@ -2128,6 +2178,9 @@
       <c r="C34" t="s">
         <v>118</v>
       </c>
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>119</v>
       </c>
@@ -2152,6 +2205,9 @@
       <c r="C35" t="s">
         <v>122</v>
       </c>
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
       <c r="G35" s="2" t="s">
         <v>123</v>
       </c>
@@ -2166,7 +2222,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2730</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -2175,6 +2231,15 @@
       </c>
       <c r="C36" t="s">
         <v>125</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>126</v>
@@ -2200,6 +2265,9 @@
       <c r="C37" t="s">
         <v>128</v>
       </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>129</v>
       </c>
@@ -2223,6 +2291,9 @@
       </c>
       <c r="C38" t="s">
         <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>133</v>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -1195,7 +1195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGN81HC\Desktop\DocumentMsc\aaa\HelloWorld\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -826,36 +831,69 @@
     <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked while  interrupts are disabled and return E_OK.</t>
   </si>
   <si>
-    <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked while  interrupts are available and return E_OK.</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about set the internal signal value when function rba_Msc_SetSigVal() is called.
 Risk:Low</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells aboutswitch the driver from synchronous mode to asynchronous mode when function rba_Msc_End_Init() is called.
+    <t>Verify that the state of the given signal in the internal signal register is set successful when function rba_Msc_SetSigVal() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the current state of the given signal in the internal signal register is get successful when function rba_Msc_GetSigVal() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke when the parameter nrUsFrm_u32 is exceeds configured maximum number of upstream frames and function rba_Msc_SetNrUsFrm() returns E_NOT_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the pointer to the upstream buffer associated to the given MSC command index is get successful when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked while interrupts are available and return E_OK.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about get the current state of the downstream date multiplexer when function rba_Msc_GetMux() is called.
 Risk:Low</t>
   </si>
   <si>
-    <t>Verify that the state of the given signal in the internal signal register is set successful when function rba_Msc_SetSigVal() is invoked and returns E_OK.</t>
-  </si>
-  <si>
-    <t>Verify that the current state of the given signal in the internal signal register is get successful when function rba_Msc_GetSigVal() is invoked and returns E_OK.</t>
-  </si>
-  <si>
-    <t>Verify that DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke when the parameter nrUsFrm_u32 is exceeds configured maximum number of upstream frames and function rba_Msc_SetNrUsFrm() returns E_NOT_OK.</t>
-  </si>
-  <si>
-    <t>Verify that the pointer to the upstream buffer associated to the given MSC command index is get successful when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK.</t>
-  </si>
-  <si>
-    <t>When function rba_Msc_End_Init() is invoked verify that  synchronous mode to asynchronous mode</t>
+    <t>Analysis:Requirement tells about set the internal signal value when function rba_Msc_SetMux() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that the current state of the MSC signal multiplexer for the given signal set successful when function rba_Msc_GetMux() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the current state of the MSC signal multiplexer for the given signal set successful when function rba_Msc_SetMux() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about switch the driver from synchronous mode to asynchronous mode when function rba_Msc_End_Init() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about shut down queue handling of the driver for transition from asynchronous mode to synchronous mode when function rba_Msc_ShDwn() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about shut down queue handling of the driver for transition from asynchronous mode to synchronous mode while interrupts are disabled when function rba_Msc_SwtToSync() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When function rba_Msc_End_Init() is invoked verify that the synchronous polling mode is switch to asynchronous interrupt mode.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When function rba_Msc_ShDwn() is invoked verify that the queues are clear and switch from asynchronous interrupt to synchronous polling mode and the interrupts mode must be enabled, so that the queue handler can operate using its ISRs
+. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When function rba_Msc_SwtToSync() is invoked verify that the queues are clear and switch from asynchronous Interrupts must be disabled, there must be no active rba_Msc ISR on any core.
+. 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1195,7 +1233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1206,17 +1244,17 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" customWidth="1"/>
     <col min="4" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="120.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1831,7 +1869,7 @@
         <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>86</v>
@@ -2053,7 +2091,7 @@
         <v>155</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>105</v>
@@ -2086,7 +2124,7 @@
         <v>155</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>110</v>
@@ -2119,7 +2157,7 @@
         <v>155</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>113</v>
@@ -2146,13 +2184,13 @@
         <v>115</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
         <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>116</v>
@@ -2168,7 +2206,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2727</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -2178,8 +2216,14 @@
       <c r="C34" t="s">
         <v>118</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E34" t="s">
         <v>155</v>
+      </c>
+      <c r="F34" t="s">
+        <v>188</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>119</v>
@@ -2195,7 +2239,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2728</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -2205,8 +2249,14 @@
       <c r="C35" t="s">
         <v>122</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E35" t="s">
         <v>155</v>
+      </c>
+      <c r="F35" t="s">
+        <v>189</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>123</v>
@@ -2233,13 +2283,13 @@
         <v>125</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
         <v>155</v>
       </c>
-      <c r="F36" t="s">
-        <v>187</v>
+      <c r="F36" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>126</v>
@@ -2255,7 +2305,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2742</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -2265,8 +2315,14 @@
       <c r="C37" t="s">
         <v>128</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="E37" t="s">
         <v>155</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>129</v>
@@ -2282,7 +2338,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2744</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -2292,8 +2348,14 @@
       <c r="C38" t="s">
         <v>132</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="E38" t="s">
         <v>155</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>133</v>
@@ -2319,6 +2381,9 @@
       <c r="C39" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
       <c r="G39" t="s">
         <v>137</v>
       </c>
@@ -2343,6 +2408,9 @@
       <c r="C40" t="s">
         <v>140</v>
       </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
       <c r="G40" t="s">
         <v>141</v>
       </c>
@@ -2367,6 +2435,9 @@
       <c r="C41" t="s">
         <v>143</v>
       </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
       <c r="G41" t="s">
         <v>144</v>
       </c>
@@ -2390,6 +2461,9 @@
       </c>
       <c r="C42" t="s">
         <v>146</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
       </c>
       <c r="G42" t="s">
         <v>147</v>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -889,6 +889,24 @@
 . 
 </t>
   </si>
+  <si>
+    <t>Analysis:Requirement tells about checks the pointer given to the initialization of the module against the pointer given as parameter to this function when function rba_Msc_MoInitCheck() is called.   
+Risk:Low</t>
+  </si>
+  <si>
+    <t>When function rba_Msc_MoInitCheck() is called verify that function return E_OK if pointer matches used configuration, otherwise function return E_NOT_OK.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about transmit sequence of commands without interruption of other commands irrespective of their priority when function rba_Msc_TransmitSeq() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about that more than one command shall be configured in a sequence, commands of sequence shall belong to same hardware unit and same device when function rba_Msc_TransmitSeq() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When function rba_Msc_TransmitSeq() is called in interrupt mode verify that more than one command in a sequence is configured and sequence is transmitted </t>
+  </si>
 </sst>
 </file>
 
@@ -1021,7 +1039,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1056,7 +1074,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1244,17 +1262,17 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
     <col min="4" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="120.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -2371,7 +2389,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2766</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -2380,6 +2398,9 @@
       </c>
       <c r="C39" s="2" t="s">
         <v>136</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E39" t="s">
         <v>155</v>
@@ -2398,7 +2419,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2860</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -2408,8 +2429,14 @@
       <c r="C40" t="s">
         <v>140</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E40" t="s">
         <v>155</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="G40" t="s">
         <v>141</v>
@@ -2479,7 +2506,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2864</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -2488,6 +2515,15 @@
       </c>
       <c r="C43" s="2" t="s">
         <v>149</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="s">
+        <v>197</v>
       </c>
       <c r="G43" t="s">
         <v>150</v>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$43</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -885,11 +888,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">When function rba_Msc_SwtToSync() is invoked verify that the queues are clear and switch from asynchronous Interrupts must be disabled, there must be no active rba_Msc ISR on any core.
-. 
-</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about checks the pointer given to the initialization of the module against the pointer given as parameter to this function when function rba_Msc_MoInitCheck() is called.   
 Risk:Low</t>
   </si>
@@ -906,13 +904,49 @@
   </si>
   <si>
     <t xml:space="preserve">When function rba_Msc_TransmitSeq() is called in interrupt mode verify that more than one command in a sequence is configured and sequence is transmitted </t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about that get the result/status of the sequence. Status of sequence shall be ok if all the commands in sequence are transmitted when function rba_Msc_GetSeqResult() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>When function rba_Msc_GetSeqResult() is called and return E_OK verify that the result of function with valid sequence id</t>
+  </si>
+  <si>
+    <t>When function rba_Msc_TransmitSeq() is called and return E_OK verify that transmit a sequence with call back notification configured.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about that the notification shall be provided for sequence completion when function rba_Msc_TransmitSeq() is called and return E_OK.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When function rba_Msc_SwtToSync() is invoked verify that the queues are clear and switch from asynchronous Interrupts must be disabled.
+</t>
+  </si>
+  <si>
+    <t>Verify that sequence notification is invoked command notification when function rba_Msc_TransmitSeq() is invoked without interruption of other commands.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about 
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about configure the minimum upstream baud rate for a MSC device
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that the minimum baud rate of upstream for a msc device is configured</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about enabled/disabled asynchronous mode, default shall be asynchronous mode enabled when 
+Risk:Low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -941,8 +975,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -955,6 +995,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -965,11 +1010,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,8 +1024,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1262,18 +1313,20 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="6" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="98.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="120.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
@@ -1493,6 +1546,12 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1507,7 +1566,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2769</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1516,6 +1575,15 @@
       </c>
       <c r="C9" t="s">
         <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>37</v>
@@ -1613,6 +1681,9 @@
       <c r="C13" t="s">
         <v>50</v>
       </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1660,7 +1731,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2735</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1669,6 +1740,15 @@
       </c>
       <c r="C15" t="s">
         <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>208</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>58</v>
@@ -1684,122 +1764,122 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2757</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="3" t="str">
+      <c r="K16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2747-00058452","BSW_SWS_MCAL_Msc_RBA-2747")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2747</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="3" t="str">
+      <c r="K17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2751-00058452","BSW_SWS_MCAL_Msc_RBA-2751")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2751</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="3" t="str">
+      <c r="K18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2750-00058452","BSW_SWS_MCAL_Msc_RBA-2750")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2750</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="3" t="str">
+      <c r="K19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2748-00058452","BSW_SWS_MCAL_Msc_RBA-2748")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2748</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K20" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="3" t="str">
+      <c r="K20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2749-00058452","BSW_SWS_MCAL_Msc_RBA-2749")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2749</v>
       </c>
@@ -2373,7 +2453,7 @@
         <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>133</v>
@@ -2400,10 +2480,13 @@
         <v>136</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
         <v>155</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="G39" t="s">
         <v>137</v>
@@ -2430,13 +2513,13 @@
         <v>140</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="G40" t="s">
         <v>141</v>
@@ -2452,7 +2535,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2861</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -2462,8 +2545,14 @@
       <c r="C41" t="s">
         <v>143</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E41" t="s">
         <v>155</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="G41" t="s">
         <v>144</v>
@@ -2479,7 +2568,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2862</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -2489,8 +2578,14 @@
       <c r="C42" t="s">
         <v>146</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="E42" t="s">
         <v>155</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="G42" t="s">
         <v>147</v>
@@ -2517,13 +2612,13 @@
         <v>149</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="s">
         <v>196</v>
-      </c>
-      <c r="E43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" t="s">
-        <v>197</v>
       </c>
       <c r="G43" t="s">
         <v>150</v>
@@ -2540,6 +2635,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGN81HC\Desktop\DocumentMsc\aaa\HelloWorld\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$43</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -927,10 +922,6 @@
     <t>Verify that sequence notification is invoked command notification when function rba_Msc_TransmitSeq() is invoked without interruption of other commands.</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about 
-Risk:Low</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about configure the minimum upstream baud rate for a MSC device
 Risk:Low</t>
   </si>
@@ -939,13 +930,28 @@
   </si>
   <si>
     <t>Analysis:Requirement tells about enabled/disabled asynchronous mode, default shall be asynchronous mode enabled when 
+Risk:Low</t>
+  </si>
+  <si>
+    <t>continuous clock cycle support shall be provided.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Check through oscilloscope whether the clock signal is continuous during Msc transmission.
+Verified by Manual inspection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive phase of 2 clock cycles </t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about
 Risk:Low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1090,7 +1096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1125,7 +1131,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1302,7 +1308,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1313,10 +1319,10 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,7 +1380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1383,6 +1389,15 @@
       </c>
       <c r="C2" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -1408,6 +1423,9 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
@@ -1577,13 +1595,13 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
         <v>207</v>
-      </c>
-      <c r="E9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" t="s">
-        <v>208</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>37</v>
@@ -1742,13 +1760,13 @@
         <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
         <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>58</v>
@@ -2601,7 +2619,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2864</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="204" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -2635,7 +2653,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E43"/>
+  <autoFilter ref="A1:M43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGN81HC\Desktop\DocumentMsc\bbb\HelloWorld\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$43</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -510,221 +515,6 @@
     <t>BSW_SWS_MCAL_Msc_RBA-2884</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Service name:	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rba_Msc_MoInitCheck	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Syntax:	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Std_ReturnType rba_Msc_MoInitCheck(const rba_Msc_ConfigType* ConfigPtr)	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sync/Async:	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Synchronous	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Service ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">	None	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Reentrancy:	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Reentrant	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Parameters (in):	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ConfigPtr - Pointer to rba_Msc configuration set (variant post-build)	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Parameters (inout):	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">None	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Parameters (out):	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">None	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Return value:	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Std_ReturnType	   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Description:	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Checks the pointer given to the initialization of the module against the pointer given as parameter to this function.	 
-</t>
-    </r>
-  </si>
-  <si>
     <t>Call the function with a valid and invalid pointers and check whether the return values are as expected.</t>
   </si>
   <si>
@@ -754,20 +544,6 @@
     <t>Verify that DET error  RBA_MSC_E_PARAM_IS_NULL  is reported if invalid pointer is passed as parameter to the API</t>
   </si>
   <si>
-    <t>Verify that DET error  RBA_MSC_E_UNINIT  is reported if rba_Msc_Prv_stInitialized_b is FALSE</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about DET error will not be reported when DET report is disable.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Verify that DET report will not report when RBA_MSC_CFG_DEV_ERR_DET is STD_OFF</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about get the result/status of the command when function rba_Msc_GetCmdResult() is called.
-Risk:Low</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about get the current command value when function rba_Msc_GetCmdVal() is called.
 Risk:Low</t>
   </si>
@@ -780,29 +556,10 @@
 Risk:Low</t>
   </si>
   <si>
-    <t>Verify that the current command value associated to the given MSC command index is get successful when function rba_Msc_GetCmdVal() is invoked and returns E_OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the status result of command is get successful when function rba_Msc_GetCmdResult() is invoked and returns E_OK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the command value of the command associated to the given MSC command index is set successful when function rba_Msc_SetCmdVal() is invoked and returns E_OK, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the current number of upstream frames set for the command associated to the given MSC command index is set successful when function rba_Msc_GetNrUsFrm() is invoked and returns E_OK, </t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about get the current number of upstream frames when function rba_Msc_SetNrUsFrm() is called.
 Risk:Low</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the number of upstream frames for the command associated to the given MSC command index is set successful when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK, </t>
-  </si>
-  <si>
-    <t>Analysis : The number of upstream frames is limited to the configured maximum number of upstream frames, if the new number of upstream frames is exceeds configured maximum number of upstream frames, DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke
-Risk : Low</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about get the pointer to the upstream buffer when function rba_Msc_GetUsBuf() is called.
 Risk:Low</t>
   </si>
@@ -811,10 +568,6 @@
 Risk:Low</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about transmit a MSC command.
-Risk:Low</t>
-  </si>
-  <si>
     <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked and return E_OK.</t>
   </si>
   <si>
@@ -833,18 +586,9 @@
 Risk:Low</t>
   </si>
   <si>
-    <t>Verify that the state of the given signal in the internal signal register is set successful when function rba_Msc_SetSigVal() is invoked and returns E_OK.</t>
-  </si>
-  <si>
-    <t>Verify that the current state of the given signal in the internal signal register is get successful when function rba_Msc_GetSigVal() is invoked and returns E_OK.</t>
-  </si>
-  <si>
     <t>Verify that DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke when the parameter nrUsFrm_u32 is exceeds configured maximum number of upstream frames and function rba_Msc_SetNrUsFrm() returns E_NOT_OK.</t>
   </si>
   <si>
-    <t>Verify that the pointer to the upstream buffer associated to the given MSC command index is get successful when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK.</t>
-  </si>
-  <si>
     <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked while interrupts are available and return E_OK.</t>
   </si>
   <si>
@@ -856,37 +600,6 @@
 Risk:Low</t>
   </si>
   <si>
-    <t>Verify that the current state of the MSC signal multiplexer for the given signal set successful when function rba_Msc_GetMux() is invoked and returns E_OK.</t>
-  </si>
-  <si>
-    <t>Verify that the current state of the MSC signal multiplexer for the given signal set successful when function rba_Msc_SetMux() is invoked and returns E_OK.</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about switch the driver from synchronous mode to asynchronous mode when function rba_Msc_End_Init() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about shut down queue handling of the driver for transition from asynchronous mode to synchronous mode when function rba_Msc_ShDwn() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about shut down queue handling of the driver for transition from asynchronous mode to synchronous mode while interrupts are disabled when function rba_Msc_SwtToSync() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When function rba_Msc_End_Init() is invoked verify that the synchronous polling mode is switch to asynchronous interrupt mode.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When function rba_Msc_ShDwn() is invoked verify that the queues are clear and switch from asynchronous interrupt to synchronous polling mode and the interrupts mode must be enabled, so that the queue handler can operate using its ISRs
-. 
-</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about checks the pointer given to the initialization of the module against the pointer given as parameter to this function when function rba_Msc_MoInitCheck() is called.   
-Risk:Low</t>
-  </si>
-  <si>
     <t>When function rba_Msc_MoInitCheck() is called verify that function return E_OK if pointer matches used configuration, otherwise function return E_NOT_OK.</t>
   </si>
   <si>
@@ -894,25 +607,7 @@
 Risk:Low</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about that more than one command shall be configured in a sequence, commands of sequence shall belong to same hardware unit and same device when function rba_Msc_TransmitSeq() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When function rba_Msc_TransmitSeq() is called in interrupt mode verify that more than one command in a sequence is configured and sequence is transmitted </t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about that get the result/status of the sequence. Status of sequence shall be ok if all the commands in sequence are transmitted when function rba_Msc_GetSeqResult() is called.
-Risk:Low</t>
-  </si>
-  <si>
     <t>When function rba_Msc_GetSeqResult() is called and return E_OK verify that the result of function with valid sequence id</t>
-  </si>
-  <si>
-    <t>When function rba_Msc_TransmitSeq() is called and return E_OK verify that transmit a sequence with call back notification configured.</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about that the notification shall be provided for sequence completion when function rba_Msc_TransmitSeq() is called and return E_OK.
-Risk:Low</t>
   </si>
   <si>
     <t xml:space="preserve">When function rba_Msc_SwtToSync() is invoked verify that the queues are clear and switch from asynchronous Interrupts must be disabled.
@@ -926,9 +621,6 @@
 Risk:Low</t>
   </si>
   <si>
-    <t>Verify that the minimum baud rate of upstream for a msc device is configured</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about enabled/disabled asynchronous mode, default shall be asynchronous mode enabled when 
 Risk:Low</t>
   </si>
@@ -941,18 +633,141 @@
 Verified by Manual inspection.</t>
   </si>
   <si>
-    <t xml:space="preserve">passive phase of 2 clock cycles </t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about
-Risk:Low</t>
+    <t>Analysis:Requirement tells about check invalid OS 
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about configure the upstream parity type to odd or even, and default shall be even parity.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that the minimum baud rate of upstream for a msc device is configured.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the upstream parity type to odd or even </t>
+  </si>
+  <si>
+    <t>Verify that DET report shall not report when RBA_MSC_CFG_DEV_ERR_DET is STD_OFF</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about in case the asynchronous handler is idle
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about DET error shall not reported when DET report is disable.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the status result of command is get when function rba_Msc_GetCmdResult() is invoked and returns E_OK </t>
+  </si>
+  <si>
+    <t>Verify that the current command value associated to the given MSC command index is get when function rba_Msc_GetCmdVal() is invoked and returns E_OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the command value of the command associated to the given MSC command index is set when function rba_Msc_SetCmdVal() is invoked and returns E_OK, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the current number of upstream frames set for the command associated to the given MSC command index is set when function rba_Msc_GetNrUsFrm() is invoked and returns E_OK, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the number of upstream frames for the command associated to the given MSC command index is set when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK, </t>
+  </si>
+  <si>
+    <t>Verify that the pointer to the upstream buffer associated to the given MSC command index is get when function rba_Msc_SetNrUsFrm() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the current state of the given signal in the internal signal register is get when function rba_Msc_GetSigVal() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the state of the given signal in the internal signal register is set when function rba_Msc_SetSigVal() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the current state of the MSC signal multiplexer for the given signal set when function rba_Msc_GetMux() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Verify that the current state of the MSC signal multiplexer for the given signal set when function rba_Msc_SetMux() is invoked and returns E_OK.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about switch from synchronous mode to asynchronous mode of driver, this transition is only required once during start up
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the driver is switch from synchronous mode to asynchronous mode during start up
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When function rba_Msc_ShDwn() is invoked verify that the queues are clear and switch from asynchronous interrupt to synchronous polling mode and the interrupts mode must be enable.
+</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about shut down queue handling of driver, while interrupts are enabled.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about shut down queue handling of the driver while interrupts are disabled when function rba_Msc_SwtToSync() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about that the sequence shall have more than one command and the commands of sequence shall belong to same hardware unit and same device when function rba_Msc_TransmitSeq() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When function rba_Msc_TransmitSeq() is called verify that more than one command in a sequence is configured and sequence is transmitted </t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about that get the result status of the sequence when function rba_Msc_GetSeqResult() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>When function rba_Msc_TransmitSeq() is called in polling mode and return E_OK verify that transmit a sequence with call back notification configured.</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about that the notification shall be provided for sequence completion when function rba_Msc_TransmitSeq() is called in polling mode and return E_OK.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about function rba_Msc_MoInitCheck() shall checks the pointer given to the initialization of the module against the pointer given as parameter
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Service name:	rba_Msc_MoInitCheck	   
+Syntax:	Std_ReturnType rba_Msc_MoInitCheck(const rba_Msc_ConfigType* ConfigPtr)	   
+Sync/Async:	Synchronous	   
+Service ID:	None	   
+Reentrancy:	Reentrant	   
+Parameters (in):	ConfigPtr - Pointer to rba_Msc configuration set (variant post-build)	   
+Parameters (inout):	None	   
+Parameters (out):	None	   
+Return value:	Std_ReturnType	   
+Description:	Checks the pointer given to the initialization of the module against the pointer given as parameter to this function.	 
+</t>
+  </si>
+  <si>
+    <t>Analysis : Requirement tells about the number of upstream frames is limited depends on the maximum number of upstream frames  DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke
+Risk : Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about MSC command is transmit 
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about get the status result of the command when function rba_Msc_GetCmdResult() is called.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the initialization state is not as expected issue a DET
+</t>
+  </si>
+  <si>
+    <t>Verify that check the OS invalid at STARTUP phase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -974,21 +789,32 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,8 +832,23 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1015,13 +856,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,14 +904,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1308,7 +1197,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1316,13 +1205,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1219,7 @@
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="120.140625" bestFit="1" customWidth="1"/>
@@ -1339,7 +1228,7 @@
     <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,13 +1239,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1380,211 +1269,211 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="str">
+      <c r="K2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-439-00058452","BSW_SWS_MCAL_Msc_RBA-439")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-439</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3" t="str">
+      <c r="K3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-440-00058452","BSW_SWS_MCAL_Msc_RBA-440")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-440</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="3" t="str">
+      <c r="K4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-443-00058452","BSW_SWS_MCAL_Msc_RBA-443")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-443</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3" t="str">
+      <c r="K5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-442-00058452","BSW_SWS_MCAL_Msc_RBA-442")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-442</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="3" t="str">
+      <c r="K6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2733-00058452","BSW_SWS_MCAL_Msc_RBA-2733")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2733</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="3" t="str">
+      <c r="K7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2734-00058452","BSW_SWS_MCAL_Msc_RBA-2734")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2734</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="3" t="str">
+      <c r="K8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2769-00058452","BSW_SWS_MCAL_Msc_RBA-2769")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2769</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1595,13 +1484,13 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>37</v>
@@ -1617,139 +1506,145 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2737</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="3" t="str">
+      <c r="K10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2738-00058452","BSW_SWS_MCAL_Msc_RBA-2738")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2738</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="3" t="str">
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2739-00058452","BSW_SWS_MCAL_Msc_RBA-2739")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2739</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="3" t="str">
+      <c r="K12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2768-00058452","BSW_SWS_MCAL_Msc_RBA-2768")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2768</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="D13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="3" t="str">
+      <c r="K13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2755-00058452","BSW_SWS_MCAL_Msc_RBA-2755")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2755</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="D14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="3" t="str">
+      <c r="K14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2735-00058452","BSW_SWS_MCAL_Msc_RBA-2735")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2735</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="39" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1760,13 +1655,10 @@
         <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>58</v>
@@ -1878,7 +1770,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2748</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
@@ -1902,756 +1794,763 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2749</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="D21" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="3" t="str">
+      <c r="K21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-445-00058452","BSW_SWS_MCAL_Msc_RBA-445")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-445</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="D22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="3" t="str">
+      <c r="K22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-446-00058452","BSW_SWS_MCAL_Msc_RBA-446")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-446</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="D23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="3" t="str">
+      <c r="K23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-447-00058452","BSW_SWS_MCAL_Msc_RBA-447")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-447</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12" s="8" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="D24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K24" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="3" t="str">
+      <c r="K24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2760-00058452","BSW_SWS_MCAL_Msc_RBA-2760")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2760</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="D25" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="3" t="str">
+      <c r="K25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-504-00058452","BSW_SWS_MCAL_Msc_RBA-504")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-504</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="D26" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="3" t="str">
+      <c r="K26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-521-00058452","BSW_SWS_MCAL_Msc_RBA-521")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-521</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="D27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K27" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="3" t="str">
+      <c r="K27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2720-00058452","BSW_SWS_MCAL_Msc_RBA-2720")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2720</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="D28" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K28" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="3" t="str">
+      <c r="K28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2721-00058452","BSW_SWS_MCAL_Msc_RBA-2721")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2721</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="D29" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K29" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="3" t="str">
+      <c r="K29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2722-00058452","BSW_SWS_MCAL_Msc_RBA-2722")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2722</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="D30" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="3" t="str">
+      <c r="K30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2723-00058452","BSW_SWS_MCAL_Msc_RBA-2723")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2723</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="D31" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="3" t="str">
+      <c r="K31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2724-00058452","BSW_SWS_MCAL_Msc_RBA-2724")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2724</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="D32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="3" t="str">
+      <c r="K32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2726-00058452","BSW_SWS_MCAL_Msc_RBA-2726")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2726</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="D33" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="3" t="str">
+      <c r="K33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2727-00058452","BSW_SWS_MCAL_Msc_RBA-2727")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2727</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="D34" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="3" t="str">
+      <c r="K34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2728-00058452","BSW_SWS_MCAL_Msc_RBA-2728")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2728</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" t="s">
-        <v>189</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="D35" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="3" t="str">
+      <c r="K35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2730-00058452","BSW_SWS_MCAL_Msc_RBA-2730")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2730</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E36" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="D36" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K36" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="3" t="str">
+      <c r="K36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2742-00058452","BSW_SWS_MCAL_Msc_RBA-2742")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2742</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="D37" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="3" t="str">
+      <c r="K37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2744-00058452","BSW_SWS_MCAL_Msc_RBA-2744")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2744</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="D38" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K38" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="3" t="str">
+      <c r="K38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2766-00058452","BSW_SWS_MCAL_Msc_RBA-2766")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2766</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="D39" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="3" t="str">
+      <c r="K39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2860-00058452","BSW_SWS_MCAL_Msc_RBA-2860")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2860</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D40" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K40" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="3" t="str">
+      <c r="K40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2861-00058452","BSW_SWS_MCAL_Msc_RBA-2861")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2861</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="D41" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K41" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="3" t="str">
+      <c r="K41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2862-00058452","BSW_SWS_MCAL_Msc_RBA-2862")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2862</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E42" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="D42" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K42" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="3" t="str">
+      <c r="K42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2864-00058452","BSW_SWS_MCAL_Msc_RBA-2864")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2864</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="J43" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="J43" t="s">
-        <v>151</v>
-      </c>
-      <c r="K43" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="3" t="str">
+      <c r="K43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2884-00058452","BSW_SWS_MCAL_Msc_RBA-2884")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2884</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:M43"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGN81HC\Desktop\DocumentMsc\bbb\HelloWorld\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100" tabRatio="425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$43</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -617,10 +612,6 @@
     <t>Verify that sequence notification is invoked command notification when function rba_Msc_TransmitSeq() is invoked without interruption of other commands.</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about configure the minimum upstream baud rate for a MSC device
-Risk:Low</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about enabled/disabled asynchronous mode, default shall be asynchronous mode enabled when 
 Risk:Low</t>
   </si>
@@ -639,12 +630,6 @@
   <si>
     <t>Analysis:Requirement tells about configure the upstream parity type to odd or even, and default shall be even parity.
 Risk:Low</t>
-  </si>
-  <si>
-    <t>Verify that the minimum baud rate of upstream for a msc device is configured.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the upstream parity type to odd or even </t>
   </si>
   <si>
     <t>Verify that DET report shall not report when RBA_MSC_CFG_DEV_ERR_DET is STD_OFF</t>
@@ -762,11 +747,34 @@
   <si>
     <t>Verify that check the OS invalid at STARTUP phase</t>
   </si>
+  <si>
+    <t>Analysis:Requirement tells about a MSC device is configured for the minimum upstream baud rate
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that the minimum baud rate of upstream for a msc device is configured</t>
+  </si>
+  <si>
+    <t>Verify that the upstream parity type to odd or even when the frame is error or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that </t>
+  </si>
+  <si>
+    <t>Analysis:Requirement tells about  depends on the HW, configure the downstream baud rate.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Verify that the downstream baud rate is configured depends on HW.</t>
+  </si>
+  <si>
+    <t>Analysis: Requirement tells about check the actual upstream baud rate with the minimum upstream baud rate.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1197,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1208,18 +1216,18 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.140625" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.85546875" customWidth="1"/>
     <col min="7" max="7" width="120.140625" bestFit="1" customWidth="1"/>
@@ -1280,13 +1288,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>13</v>
@@ -1391,7 +1399,7 @@
         <v>154</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>27</v>
@@ -1451,13 +1459,13 @@
         <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>33</v>
@@ -1484,13 +1492,13 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
         <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>37</v>
@@ -1516,6 +1524,15 @@
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1530,7 +1547,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2738</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -1539,6 +1556,15 @@
       </c>
       <c r="C11" s="6" t="s">
         <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -1589,13 +1615,13 @@
         <v>50</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>154</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>51</v>
@@ -1622,13 +1648,13 @@
         <v>54</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>55</v>
@@ -1655,7 +1681,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
         <v>154</v>
@@ -1805,7 +1831,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>154</v>
@@ -1904,7 +1930,7 @@
         <v>88</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>154</v>
@@ -1934,13 +1960,13 @@
         <v>92</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>93</v>
@@ -1973,7 +1999,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>96</v>
@@ -2006,7 +2032,7 @@
         <v>154</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>99</v>
@@ -2039,7 +2065,7 @@
         <v>154</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>102</v>
@@ -2072,7 +2098,7 @@
         <v>154</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>105</v>
@@ -2099,7 +2125,7 @@
         <v>107</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>154</v>
@@ -2138,7 +2164,7 @@
         <v>154</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>110</v>
@@ -2171,7 +2197,7 @@
         <v>154</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>113</v>
@@ -2204,7 +2230,7 @@
         <v>154</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>116</v>
@@ -2237,7 +2263,7 @@
         <v>154</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>119</v>
@@ -2270,7 +2296,7 @@
         <v>154</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>123</v>
@@ -2297,13 +2323,13 @@
         <v>125</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>126</v>
@@ -2330,13 +2356,13 @@
         <v>128</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>129</v>
@@ -2352,7 +2378,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2744</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>131</v>
       </c>
@@ -2363,7 +2389,7 @@
         <v>132</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>154</v>
@@ -2385,7 +2411,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2766</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>135</v>
       </c>
@@ -2418,7 +2444,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2860</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>139</v>
       </c>
@@ -2429,13 +2455,13 @@
         <v>140</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>141</v>
@@ -2451,7 +2477,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2861</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>142</v>
       </c>
@@ -2462,13 +2488,13 @@
         <v>143</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>144</v>
@@ -2495,7 +2521,7 @@
         <v>146</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>154</v>
@@ -2525,10 +2551,10 @@
         <v>78</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>154</v>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGN81HC\Desktop\DocumentMsc\bbb\HelloWorld\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100" tabRatio="425"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$43</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -774,8 +779,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -786,13 +791,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -809,12 +807,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
@@ -822,7 +814,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,36 +839,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -895,46 +867,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1205,7 +1165,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,7 +1176,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
@@ -1277,277 +1237,277 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="10" t="str">
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-439-00058452","BSW_SWS_MCAL_Msc_RBA-439")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-439</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="6" t="str">
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-440-00058452","BSW_SWS_MCAL_Msc_RBA-440")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-440</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="6" t="str">
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-443-00058452","BSW_SWS_MCAL_Msc_RBA-443")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-443</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="6" t="str">
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-442-00058452","BSW_SWS_MCAL_Msc_RBA-442")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-442</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="10" t="str">
+      <c r="K6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2733-00058452","BSW_SWS_MCAL_Msc_RBA-2733")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2733</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="10" t="str">
+      <c r="K7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2734-00058452","BSW_SWS_MCAL_Msc_RBA-2734")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2734</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="10" t="str">
+      <c r="K8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2769-00058452","BSW_SWS_MCAL_Msc_RBA-2769")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2769</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3" t="str">
+      <c r="K9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2737-00058452","BSW_SWS_MCAL_Msc_RBA-2737")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2737</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="6" t="str">
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2738-00058452","BSW_SWS_MCAL_Msc_RBA-2738")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2738</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -1560,7 +1520,7 @@
       <c r="D11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>154</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1580,31 +1540,31 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2739</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="6" t="str">
+      <c r="K12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2768-00058452","BSW_SWS_MCAL_Msc_RBA-2768")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2768</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -1637,941 +1597,941 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2755</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="10" t="str">
+      <c r="K14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2735-00058452","BSW_SWS_MCAL_Msc_RBA-2735")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2735</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="39" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="3" t="str">
+      <c r="K15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2757-00058452","BSW_SWS_MCAL_Msc_RBA-2757")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2757</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="4" t="str">
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2747-00058452","BSW_SWS_MCAL_Msc_RBA-2747")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2747</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="4" t="str">
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2751-00058452","BSW_SWS_MCAL_Msc_RBA-2751")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2751</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="4" t="str">
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="2" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2750-00058452","BSW_SWS_MCAL_Msc_RBA-2750")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2750</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="4" t="str">
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="2" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2748-00058452","BSW_SWS_MCAL_Msc_RBA-2748")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2748</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="4" t="str">
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="2" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2749-00058452","BSW_SWS_MCAL_Msc_RBA-2749")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2749</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:12" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="10" t="str">
+      <c r="K21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-445-00058452","BSW_SWS_MCAL_Msc_RBA-445")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-445</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:12" s="6" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="10" t="str">
+      <c r="K22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-446-00058452","BSW_SWS_MCAL_Msc_RBA-446")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-446</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:12" s="6" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="10" t="str">
+      <c r="K23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-447-00058452","BSW_SWS_MCAL_Msc_RBA-447")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-447</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:12" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="E24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="8" t="str">
+      <c r="K24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2760-00058452","BSW_SWS_MCAL_Msc_RBA-2760")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2760</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="10" t="str">
+      <c r="K25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-504-00058452","BSW_SWS_MCAL_Msc_RBA-504")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-504</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="10" t="str">
+      <c r="K26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-521-00058452","BSW_SWS_MCAL_Msc_RBA-521")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-521</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="10" t="str">
+      <c r="K27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2720-00058452","BSW_SWS_MCAL_Msc_RBA-2720")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2720</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="10" t="str">
+      <c r="K28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2721-00058452","BSW_SWS_MCAL_Msc_RBA-2721")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2721</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="10" t="str">
+      <c r="K29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2722-00058452","BSW_SWS_MCAL_Msc_RBA-2722")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2722</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:12" s="6" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="10" t="str">
+      <c r="K30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2723-00058452","BSW_SWS_MCAL_Msc_RBA-2723")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2723</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="10" t="str">
+      <c r="K31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2724-00058452","BSW_SWS_MCAL_Msc_RBA-2724")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2724</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="10" t="str">
+      <c r="K32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2726-00058452","BSW_SWS_MCAL_Msc_RBA-2726")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2726</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="10" t="str">
+      <c r="K33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2727-00058452","BSW_SWS_MCAL_Msc_RBA-2727")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2727</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="10" t="str">
+      <c r="K34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2728-00058452","BSW_SWS_MCAL_Msc_RBA-2728")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2728</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:12" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="10" t="str">
+      <c r="K35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2730-00058452","BSW_SWS_MCAL_Msc_RBA-2730")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2730</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:12" s="6" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="E36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="10" t="str">
+      <c r="K36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2742-00058452","BSW_SWS_MCAL_Msc_RBA-2742")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2742</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:12" s="6" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="11" t="s">
+      <c r="E37" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="10" t="str">
+      <c r="K37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2744-00058452","BSW_SWS_MCAL_Msc_RBA-2744")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2744</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:12" s="6" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="11" t="s">
+      <c r="E38" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="10" t="str">
+      <c r="K38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2766-00058452","BSW_SWS_MCAL_Msc_RBA-2766")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2766</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:12" s="6" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="E39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="10" t="str">
+      <c r="K39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2860-00058452","BSW_SWS_MCAL_Msc_RBA-2860")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2860</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:12" s="6" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="E40" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="10" t="str">
+      <c r="K40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2861-00058452","BSW_SWS_MCAL_Msc_RBA-2861")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2861</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:12" s="6" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="E41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="10" t="str">
+      <c r="K41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2862-00058452","BSW_SWS_MCAL_Msc_RBA-2862")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2862</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:12" s="6" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="10" t="str">
+      <c r="K42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2864-00058452","BSW_SWS_MCAL_Msc_RBA-2864")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2864</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:12" s="6" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="10" t="str">
+      <c r="K43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2884-00058452","BSW_SWS_MCAL_Msc_RBA-2884")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2884</v>
       </c>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>READY FOR IMPLEMENTATION</t>
-  </si>
-  <si>
-    <t>BSW_SWS_MCAL_Msc_RBA-440</t>
-  </si>
-  <si>
-    <t>passive phase of 2 clock cycles</t>
   </si>
   <si>
     <t>BSW_SWS_MCAL_Msc_RBA-443</t>
@@ -219,62 +213,6 @@
     <t>CSCRM00613379</t>
   </si>
   <si>
-    <t>BSW_SWS_MCAL_Msc_RBA-2747</t>
-  </si>
-  <si>
-    <t>uC1 IFX device 3</t>
-  </si>
-  <si>
-    <t>Legacy:
-TC_D01</t>
-  </si>
-  <si>
-    <t>BSW_SWS_MCAL_Msc_RBA-2751</t>
-  </si>
-  <si>
-    <t>uC1 IFX device 3 B step</t>
-  </si>
-  <si>
-    <t>Legacy:
-TC_D02</t>
-  </si>
-  <si>
-    <t>CSCRM00528198</t>
-  </si>
-  <si>
-    <t>BSW_SWS_MCAL_Msc_RBA-2750</t>
-  </si>
-  <si>
-    <t>uC1 JDP device 2</t>
-  </si>
-  <si>
-    <t>Legacy:
-TC_D03</t>
-  </si>
-  <si>
-    <t>CSCRM00452495</t>
-  </si>
-  <si>
-    <t>BSW_SWS_MCAL_Msc_RBA-2748</t>
-  </si>
-  <si>
-    <t>uC1 JDP device 3</t>
-  </si>
-  <si>
-    <t>Legacy:
-TC_D04</t>
-  </si>
-  <si>
-    <t>BSW_SWS_MCAL_Msc_RBA-2749</t>
-  </si>
-  <si>
-    <t>uC1 JDP device 4</t>
-  </si>
-  <si>
-    <t>Legacy:
-TC_D05</t>
-  </si>
-  <si>
     <t>BSW_SWS_MCAL_Msc_RBA-445</t>
   </si>
   <si>
@@ -539,30 +477,6 @@
     <t>Verify that DET error  RBA_MSC_E_PARAM_IS_NULL  is reported if invalid pointer is passed as parameter to the API</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about get the current command value when function rba_Msc_GetCmdVal() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about set the command value when function rba_Msc_SetCmdVal() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about get the current number of upstream frames when function rba_Msc_GetNrUsFrm() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about get the current number of upstream frames when function rba_Msc_SetNrUsFrm() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about get the pointer to the upstream buffer when function rba_Msc_GetUsBuf() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about get the current internal signal value when function rba_Msc_GetSigVal() is called.
-Risk:Low</t>
-  </si>
-  <si>
     <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked and return E_OK.</t>
   </si>
   <si>
@@ -577,29 +491,13 @@
     <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked while  interrupts are disabled and return E_OK.</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about set the internal signal value when function rba_Msc_SetSigVal() is called.
-Risk:Low</t>
-  </si>
-  <si>
     <t>Verify that DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke when the parameter nrUsFrm_u32 is exceeds configured maximum number of upstream frames and function rba_Msc_SetNrUsFrm() returns E_NOT_OK.</t>
   </si>
   <si>
     <t>Verify that transmit a MSC command when function rba_Msc_Transmit() is invoked while interrupts are available and return E_OK.</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about get the current state of the downstream date multiplexer when function rba_Msc_GetMux() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about set the internal signal value when function rba_Msc_SetMux() is called.
-Risk:Low</t>
-  </si>
-  <si>
     <t>When function rba_Msc_MoInitCheck() is called verify that function return E_OK if pointer matches used configuration, otherwise function return E_NOT_OK.</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about transmit sequence of commands without interruption of other commands irrespective of their priority when function rba_Msc_TransmitSeq() is called.
-Risk:Low</t>
   </si>
   <si>
     <t>When function rba_Msc_GetSeqResult() is called and return E_OK verify that the result of function with valid sequence id</t>
@@ -673,10 +571,6 @@
     <t>Verify that the current state of the MSC signal multiplexer for the given signal set when function rba_Msc_SetMux() is invoked and returns E_OK.</t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about switch from synchronous mode to asynchronous mode of driver, this transition is only required once during start up
-Risk:Low</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that the driver is switch from synchronous mode to asynchronous mode during start up
 </t>
   </si>
@@ -685,34 +579,10 @@
 </t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about shut down queue handling of driver, while interrupts are enabled.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about shut down queue handling of the driver while interrupts are disabled when function rba_Msc_SwtToSync() is called.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about that the sequence shall have more than one command and the commands of sequence shall belong to same hardware unit and same device when function rba_Msc_TransmitSeq() is called.
-Risk:Low</t>
-  </si>
-  <si>
     <t xml:space="preserve">When function rba_Msc_TransmitSeq() is called verify that more than one command in a sequence is configured and sequence is transmitted </t>
   </si>
   <si>
-    <t>Analysis:Requirement tells about that get the result status of the sequence when function rba_Msc_GetSeqResult() is called.
-Risk:Low</t>
-  </si>
-  <si>
     <t>When function rba_Msc_TransmitSeq() is called in polling mode and return E_OK verify that transmit a sequence with call back notification configured.</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about that the notification shall be provided for sequence completion when function rba_Msc_TransmitSeq() is called in polling mode and return E_OK.
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about function rba_Msc_MoInitCheck() shall checks the pointer given to the initialization of the module against the pointer given as parameter
-Risk:Low</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -729,15 +599,7 @@
 </t>
   </si>
   <si>
-    <t>Analysis : Requirement tells about the number of upstream frames is limited depends on the maximum number of upstream frames  DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke
-Risk : Low</t>
-  </si>
-  <si>
     <t>Analysis:Requirement tells about MSC command is transmit 
-Risk:Low</t>
-  </si>
-  <si>
-    <t>Analysis:Requirement tells about get the status result of the command when function rba_Msc_GetCmdResult() is called.
 Risk:Low</t>
   </si>
   <si>
@@ -769,6 +631,82 @@
   </si>
   <si>
     <t>Analysis: Requirement tells about check the actual upstream baud rate with the minimum upstream baud rate.</t>
+  </si>
+  <si>
+    <t>Check while the sequence completion, the notification shall be privided in polling mode.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Check that a sequence must have more than one command is configured and should belong to the same hardware unit and same device.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Check the command of sequence is transmit without interruption of other commands irrespective of their priority.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Check the driver is shut down queue handling from asynchronous mode to synchronous while the interrupts are disabled.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Check the driver is shut down queue handling from asynchronous mode to synchronous while the interrupts are enabled.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Check the driver is switch from synchronous mode to asynchronous mode.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The downstream data multiplexer is set the state
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The downstream data multiplexer is get the current state.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The current internal signal value is get.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The internal signal value is set.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The upstream buffer is get the pointer.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Analysis : Requirement tells about the number of upstream frames is limited depends on the maximum number of upstream frames  DET report with error code RBA_MSC_E_PARAM_NR_US_FRM is shall be invoke.
+Risk : Low</t>
+  </si>
+  <si>
+    <t>The number of upstream frames is set.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Check the result status of the sequence is get.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The current command value is get.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The command value is set.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The current number of upstream frames is get.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>The result status of the command is get.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Checks the pointer given to the initialization of the module against the pointer given as parameter to this function.
+Risk:Low</t>
   </si>
 </sst>
 </file>
@@ -798,12 +736,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -821,8 +753,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,11 +771,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00CED1"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -853,6 +786,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -895,15 +852,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,25 +872,45 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+  <cellStyles count="5">
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1205,7 +1181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1213,20 +1189,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.85546875" customWidth="1"/>
@@ -1247,13 +1223,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1277,1308 +1253,1164 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="10" t="str">
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-439-00058452","BSW_SWS_MCAL_Msc_RBA-439")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-439</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="6" t="str">
-        <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-440-00058452","BSW_SWS_MCAL_Msc_RBA-440")</f>
-        <v>BSW_SWS_MCAL_Msc_RBA-440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="6" t="str">
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-443-00058452","BSW_SWS_MCAL_Msc_RBA-443")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-443</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="6" t="str">
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-442-00058452","BSW_SWS_MCAL_Msc_RBA-442")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-442</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="10" t="str">
+      <c r="K5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2733-00058452","BSW_SWS_MCAL_Msc_RBA-2733")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2733</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="10" t="str">
+      <c r="K6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2734-00058452","BSW_SWS_MCAL_Msc_RBA-2734")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2734</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="J7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="10" t="str">
+      <c r="K7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2769-00058452","BSW_SWS_MCAL_Msc_RBA-2769")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2769</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="8" spans="1:13" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="J8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3" t="str">
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2737-00058452","BSW_SWS_MCAL_Msc_RBA-2737")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2737</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="9" spans="1:13" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="C9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="6" t="str">
+      <c r="D9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="21" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2738-00058452","BSW_SWS_MCAL_Msc_RBA-2738")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2738</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:13" s="21" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="J10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="6" t="str">
+      <c r="K10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="21" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2739-00058452","BSW_SWS_MCAL_Msc_RBA-2739")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2739</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="11" spans="1:13" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="J11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="6" t="str">
+      <c r="K11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="21" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2768-00058452","BSW_SWS_MCAL_Msc_RBA-2768")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2768</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="21" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="21" t="str">
+        <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2755-00058452","BSW_SWS_MCAL_Msc_RBA-2755")</f>
+        <v>BSW_SWS_MCAL_Msc_RBA-2755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="6" t="str">
-        <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2755-00058452","BSW_SWS_MCAL_Msc_RBA-2755")</f>
-        <v>BSW_SWS_MCAL_Msc_RBA-2755</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="10" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2735-00058452","BSW_SWS_MCAL_Msc_RBA-2735")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2735</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="39" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="14" spans="1:13" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="J14" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="3" t="str">
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="3" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2757-00058452","BSW_SWS_MCAL_Msc_RBA-2757")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2757</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="15" spans="1:13" s="14" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D15" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="J15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2747-00058452","BSW_SWS_MCAL_Msc_RBA-2747")</f>
-        <v>BSW_SWS_MCAL_Msc_RBA-2747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2751-00058452","BSW_SWS_MCAL_Msc_RBA-2751")</f>
-        <v>BSW_SWS_MCAL_Msc_RBA-2751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2750-00058452","BSW_SWS_MCAL_Msc_RBA-2750")</f>
-        <v>BSW_SWS_MCAL_Msc_RBA-2750</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2748-00058452","BSW_SWS_MCAL_Msc_RBA-2748")</f>
-        <v>BSW_SWS_MCAL_Msc_RBA-2748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2749-00058452","BSW_SWS_MCAL_Msc_RBA-2749")</f>
-        <v>BSW_SWS_MCAL_Msc_RBA-2749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="10" t="str">
+      <c r="K15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="14" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-445-00058452","BSW_SWS_MCAL_Msc_RBA-445")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-445</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="16" spans="1:13" s="14" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="C16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="10" t="str">
+      <c r="K16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="14" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-446-00058452","BSW_SWS_MCAL_Msc_RBA-446")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-446</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="10" t="s">
+    <row r="17" spans="1:12" s="14" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="C17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="10" t="str">
+      <c r="K17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="14" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-447-00058452","BSW_SWS_MCAL_Msc_RBA-447")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-447</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="8" t="s">
+    <row r="18" spans="1:12" s="18" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="8" t="str">
+      <c r="C18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="18" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2760-00058452","BSW_SWS_MCAL_Msc_RBA-2760")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2760</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="10" t="s">
+    <row r="19" spans="1:12" s="8" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="10" t="str">
+      <c r="K19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-504-00058452","BSW_SWS_MCAL_Msc_RBA-504")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-504</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="11" t="s">
+    <row r="20" spans="1:12" s="8" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="G20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="10" t="str">
+      <c r="K20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-521-00058452","BSW_SWS_MCAL_Msc_RBA-521")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-521</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="10" t="s">
+    <row r="21" spans="1:12" s="8" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="B21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="10" t="s">
+      <c r="G21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="10" t="str">
+      <c r="K21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2720-00058452","BSW_SWS_MCAL_Msc_RBA-2720")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2720</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="11" t="s">
+    <row r="22" spans="1:12" s="8" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="G22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="10" t="str">
+      <c r="K22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2721-00058452","BSW_SWS_MCAL_Msc_RBA-2721")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2721</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="11" t="s">
+    <row r="23" spans="1:12" s="8" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="10" t="s">
+      <c r="G23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="10" t="str">
+      <c r="K23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2722-00058452","BSW_SWS_MCAL_Msc_RBA-2722")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2722</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="10" t="s">
+    <row r="24" spans="1:12" s="16" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="10" t="s">
+      <c r="C24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="10" t="str">
+      <c r="K24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="16" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2723-00058452","BSW_SWS_MCAL_Msc_RBA-2723")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2723</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="11" t="s">
+    <row r="25" spans="1:12" s="8" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J31" s="10" t="s">
+      <c r="G25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="10" t="str">
+      <c r="K25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2724-00058452","BSW_SWS_MCAL_Msc_RBA-2724")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2724</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="11" t="s">
+    <row r="26" spans="1:12" s="8" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="10" t="s">
+      <c r="G26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="10" t="str">
+      <c r="K26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2726-00058452","BSW_SWS_MCAL_Msc_RBA-2726")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2726</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J33" s="10" t="s">
+    <row r="27" spans="1:12" s="8" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="10" t="str">
+      <c r="K27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2727-00058452","BSW_SWS_MCAL_Msc_RBA-2727")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2727</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="10" t="str">
+    <row r="28" spans="1:12" s="8" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2728-00058452","BSW_SWS_MCAL_Msc_RBA-2728")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2728</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="10" t="str">
+    <row r="29" spans="1:12" s="8" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2730-00058452","BSW_SWS_MCAL_Msc_RBA-2730")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2730</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="10" t="s">
+    <row r="30" spans="1:12" s="8" customFormat="1" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" s="10" t="s">
+      <c r="C30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="10" t="str">
+      <c r="K30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2742-00058452","BSW_SWS_MCAL_Msc_RBA-2742")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2742</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="10" t="str">
+    <row r="31" spans="1:12" s="8" customFormat="1" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2744-00058452","BSW_SWS_MCAL_Msc_RBA-2744")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2744</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="10" t="str">
+    <row r="32" spans="1:12" s="8" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2766-00058452","BSW_SWS_MCAL_Msc_RBA-2766")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2766</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="10" t="str">
+    <row r="33" spans="1:12" s="8" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2860-00058452","BSW_SWS_MCAL_Msc_RBA-2860")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2860</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="10" t="s">
+    <row r="34" spans="1:12" s="8" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="10" t="str">
+      <c r="C34" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2861-00058452","BSW_SWS_MCAL_Msc_RBA-2861")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2861</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="10" t="s">
+    <row r="35" spans="1:12" s="8" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="10" t="str">
+      <c r="C35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2862-00058452","BSW_SWS_MCAL_Msc_RBA-2862")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2862</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="10" t="s">
+    <row r="36" spans="1:12" s="8" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="10" t="str">
+      <c r="G36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2864-00058452","BSW_SWS_MCAL_Msc_RBA-2864")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2864</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="10" t="str">
+    <row r="37" spans="1:12" s="12" customFormat="1" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="12" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2884-00058452","BSW_SWS_MCAL_Msc_RBA-2884")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2884</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:M43"/>
+  <autoFilter ref="A1:M37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MSC_Req_DORA.xlsx
+++ b/MSC_Req_DORA.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGN81HC\Desktop\DocumentMsc\bbb\HelloWorld\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8100" tabRatio="425"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$37</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -685,10 +690,6 @@
 Risk:Low</t>
   </si>
   <si>
-    <t>Check the result status of the sequence is get.
-Risk:Low</t>
-  </si>
-  <si>
     <t>The current command value is get.
 Risk:Low</t>
   </si>
@@ -706,13 +707,17 @@
   </si>
   <si>
     <t>Checks the pointer given to the initialization of the module against the pointer given as parameter to this function.
+Risk:Low</t>
+  </si>
+  <si>
+    <t>Check the result status of the sequence is get. Status of sequence shall be ok if all the commands in sequence are transmitted.
 Risk:Low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -760,7 +765,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,12 +796,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +858,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -880,31 +879,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
@@ -1181,7 +1176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,16 +1187,16 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="93.85546875" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
@@ -1466,125 +1461,125 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2737</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="21" t="str">
+      <c r="K9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="19" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2738-00058452","BSW_SWS_MCAL_Msc_RBA-2738")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2738</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="21" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:13" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="21" t="str">
+      <c r="K10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="19" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2739-00058452","BSW_SWS_MCAL_Msc_RBA-2739")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2739</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:13" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="21" t="str">
+      <c r="K11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="19" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2768-00058452","BSW_SWS_MCAL_Msc_RBA-2768")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2768</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="21" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:13" s="19" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="21" t="str">
+      <c r="K12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="19" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2755-00058452","BSW_SWS_MCAL_Msc_RBA-2755")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2755</v>
       </c>
@@ -1652,131 +1647,131 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2757</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:13" s="8" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="14" t="str">
+      <c r="K15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-445-00058452","BSW_SWS_MCAL_Msc_RBA-445")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-445</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="14" t="str">
+      <c r="K16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-446-00058452","BSW_SWS_MCAL_Msc_RBA-446")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-446</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="14" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="14" t="str">
+      <c r="K17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="8" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-447-00058452","BSW_SWS_MCAL_Msc_RBA-447")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-447</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:12" s="16" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="E18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="18" t="str">
+      <c r="K18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="16" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2760-00058452","BSW_SWS_MCAL_Msc_RBA-2760")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2760</v>
       </c>
@@ -1792,7 +1787,7 @@
         <v>73</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>135</v>
@@ -1825,7 +1820,7 @@
         <v>76</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>135</v>
@@ -1858,7 +1853,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>135</v>
@@ -1891,7 +1886,7 @@
         <v>82</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>135</v>
@@ -1946,35 +1941,35 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2722</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="16" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="90.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="16" t="str">
+      <c r="K24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="14" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2723-00058452","BSW_SWS_MCAL_Msc_RBA-2723")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2723</v>
       </c>
@@ -2342,40 +2337,40 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2862</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="D36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="8" t="str">
+      <c r="K36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="6" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2864-00058452","BSW_SWS_MCAL_Msc_RBA-2864")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2864</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="12" customFormat="1" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="12" customFormat="1" ht="214.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>129</v>
       </c>
@@ -2386,7 +2381,7 @@
         <v>171</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>135</v>
